--- a/Oracle-Bronze/OracleBronze勉強計画表.xlsx
+++ b/Oracle-Bronze/OracleBronze勉強計画表.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SQL基礎" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="SQL基礎_20201229" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="SQL基礎" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,13 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">OracleBronze</t>
     </r>
@@ -35,11 +37,15 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">合格計画</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">遅延により計画を大幅修正</t>
+  </si>
+  <si>
     <t xml:space="preserve">タスク</t>
   </si>
   <si>
@@ -57,6 +63,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模試①</t>
     </r>
@@ -65,6 +72,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -73,6 +81,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回目</t>
     </r>
@@ -83,6 +92,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模試①</t>
     </r>
@@ -91,6 +101,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -99,6 +110,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回目</t>
     </r>
@@ -109,6 +121,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模試②</t>
     </r>
@@ -117,6 +130,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -125,6 +139,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回目</t>
     </r>
@@ -135,6 +150,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模試②</t>
     </r>
@@ -143,6 +159,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -151,6 +168,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回目</t>
     </r>
@@ -161,6 +179,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模試①</t>
     </r>
@@ -169,6 +188,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -177,6 +197,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回目</t>
     </r>
@@ -187,6 +208,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模試②</t>
     </r>
@@ -195,6 +217,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -203,6 +226,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回目</t>
     </r>
@@ -211,8 +235,18 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">黒模試①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -221,6 +255,181 @@
         <sz val="10"/>
         <rFont val="ヒラギノ明朝 ProN"/>
         <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">回目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">黒模試①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">回目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">黒模試②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">回目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">黒模試②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">回目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">黒模試①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">回目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">黒模試②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">回目</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1/17が試験日を決定するための最終日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/31~2/28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ明朝 ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日にかける工数は</t>
     </r>
@@ -229,6 +438,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0.5h-1h</t>
     </r>
@@ -238,15 +448,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M\月D\日"/>
+    <numFmt numFmtId="166" formatCode="M\月D\日"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="ヒラギノ明朝 ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -267,9 +479,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ヒラギノ明朝 ProN"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +504,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF7F"/>
         <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -330,7 +554,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,11 +567,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,7 +629,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -432,287 +672,208 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="str">
-        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
-        <v>第1章</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>44136</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>44136</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>44136</v>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="n">
+        <v>44180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="str">
-        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
-        <v>第2章</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>44137</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>44138</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>44196</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <f aca="false">B4+2</f>
+        <v>44198</v>
+      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="str">
-        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
-        <v>第3章</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <f aca="false">B4+2</f>
-        <v>44139</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <f aca="false">C4+2</f>
-        <v>44140</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="n">
+        <v>44194</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="str">
-        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
-        <v>第4章</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <f aca="false">B5+2</f>
-        <v>44141</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <f aca="false">C5+2</f>
-        <v>44142</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>44207</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <f aca="false">B6+2</f>
+        <v>44209</v>
+      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="str">
-        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
-        <v>第5章</v>
-      </c>
-      <c r="B7" s="4" t="n">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="n">
         <f aca="false">B6+2</f>
-        <v>44143</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <f aca="false">C6+2</f>
-        <v>44144</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>44209</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <f aca="false">B7+2</f>
+        <v>44211</v>
+      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="str">
-        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
-        <v>第6章</v>
-      </c>
-      <c r="B8" s="4" t="n">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="n">
         <f aca="false">B7+2</f>
-        <v>44145</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <f aca="false">C7+2</f>
-        <v>44146</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>44211</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <f aca="false">B8+2</f>
+        <v>44213</v>
+      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="str">
-        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
-        <v>第7章</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <f aca="false">B8+2</f>
-        <v>44147</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <f aca="false">C8+2</f>
-        <v>44148</v>
-      </c>
-      <c r="D9" s="5"/>
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>44194</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <f aca="false">B9+2</f>
+        <v>44196</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="str">
-        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
-        <v>第8章</v>
-      </c>
-      <c r="B10" s="4" t="n">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8" t="n">
         <f aca="false">B9+2</f>
-        <v>44149</v>
-      </c>
-      <c r="C10" s="4" t="n">
+        <v>44196</v>
+      </c>
+      <c r="C10" s="8" t="n">
         <f aca="false">C9+2</f>
-        <v>44150</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>44198</v>
+      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="str">
-        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
-        <v>第9章</v>
-      </c>
-      <c r="B11" s="4" t="n">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8" t="n">
         <f aca="false">B10+2</f>
-        <v>44151</v>
-      </c>
-      <c r="C11" s="4" t="n">
+        <v>44198</v>
+      </c>
+      <c r="C11" s="8" t="n">
         <f aca="false">C10+2</f>
-        <v>44152</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>44200</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="str">
-        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
-        <v>第10章</v>
-      </c>
-      <c r="B12" s="4" t="n">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="n">
         <f aca="false">B11+2</f>
-        <v>44153</v>
-      </c>
-      <c r="C12" s="4" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C12" s="8" t="n">
         <f aca="false">C11+2</f>
-        <v>44154</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>44202</v>
+      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="str">
-        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
-        <v>第11章</v>
-      </c>
-      <c r="B13" s="4" t="n">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8" t="n">
         <f aca="false">B12+2</f>
-        <v>44155</v>
-      </c>
-      <c r="C13" s="4" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C13" s="8" t="n">
         <f aca="false">C12+2</f>
-        <v>44156</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>44204</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="n">
         <f aca="false">B13+2</f>
-        <v>44157</v>
-      </c>
-      <c r="C14" s="4" t="n">
+        <v>44204</v>
+      </c>
+      <c r="C14" s="8" t="n">
         <f aca="false">C13+2</f>
-        <v>44158</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="n">
-        <f aca="false">B14+2</f>
-        <v>44159</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <f aca="false">C14+2</f>
-        <v>44160</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>44206</v>
+      </c>
+      <c r="D14" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <f aca="false">B15+2</f>
-        <v>44161</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <f aca="false">C15+2</f>
-        <v>44162</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4" t="n">
-        <f aca="false">B16+2</f>
-        <v>44163</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <f aca="false">C16+2</f>
-        <v>44164</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4" t="n">
-        <f aca="false">B17+2</f>
-        <v>44165</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <f aca="false">C17+2</f>
-        <v>44166</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4" t="n">
-        <f aca="false">B18+2</f>
-        <v>44167</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <f aca="false">C18+2</f>
-        <v>44168</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
+      <c r="A17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -724,4 +885,336 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="str">
+        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
+        <v>第1章</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>44136</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>44136</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="str">
+        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
+        <v>第2章</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>44137</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>44138</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="str">
+        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
+        <v>第3章</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <f aca="false">B4+2</f>
+        <v>44139</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <f aca="false">C4+2</f>
+        <v>44140</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <f aca="false">D4+2</f>
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="str">
+        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
+        <v>第4章</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <f aca="false">B5+2</f>
+        <v>44141</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <f aca="false">C5+2</f>
+        <v>44142</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <f aca="false">D5+2</f>
+        <v>44142</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="str">
+        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
+        <v>第5章</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <f aca="false">B6+2</f>
+        <v>44143</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <f aca="false">C6+2</f>
+        <v>44144</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <f aca="false">D6+2</f>
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="str">
+        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
+        <v>第6章</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <f aca="false">B7+2</f>
+        <v>44145</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <f aca="false">C7+2</f>
+        <v>44146</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <f aca="false">D7+2</f>
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="str">
+        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
+        <v>第7章</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <f aca="false">B8+2</f>
+        <v>44147</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <f aca="false">C8+2</f>
+        <v>44148</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <f aca="false">D8+2</f>
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="str">
+        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
+        <v>第8章</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <f aca="false">B9+2</f>
+        <v>44149</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <f aca="false">C9+2</f>
+        <v>44150</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <f aca="false">D9+2</f>
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="str">
+        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
+        <v>第9章</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <f aca="false">B10+2</f>
+        <v>44151</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <f aca="false">C10+2</f>
+        <v>44152</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <f aca="false">D10+2</f>
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="str">
+        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
+        <v>第10章</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <f aca="false">B11+2</f>
+        <v>44153</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <f aca="false">C11+2</f>
+        <v>44154</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <f aca="false">D11+2</f>
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="str">
+        <f aca="false">"第"&amp;ROW()-2&amp;"章"</f>
+        <v>第11章</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <f aca="false">B12+2</f>
+        <v>44155</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <f aca="false">C12+2</f>
+        <v>44156</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <f aca="false">D12+2</f>
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="n">
+        <f aca="false">B13+2</f>
+        <v>44157</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <f aca="false">C13+2</f>
+        <v>44158</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="n">
+        <f aca="false">B14+2</f>
+        <v>44159</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <f aca="false">C14+2</f>
+        <v>44160</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <f aca="false">B15+2</f>
+        <v>44161</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <f aca="false">C15+2</f>
+        <v>44162</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <f aca="false">B16+2</f>
+        <v>44163</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <f aca="false">C16+2</f>
+        <v>44164</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <f aca="false">B17+2</f>
+        <v>44165</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <f aca="false">C17+2</f>
+        <v>44166</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8" t="n">
+        <f aca="false">B18+2</f>
+        <v>44167</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <f aca="false">C18+2</f>
+        <v>44168</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>